--- a/janRain.xlsx
+++ b/janRain.xlsx
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +392,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>

--- a/janRain.xlsx
+++ b/janRain.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>2894dc64-b5e0-4d70-9076-f620690413b0</t>
   </si>
   <si>
     <t>ppukale@coca-cola.com</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -372,53 +375,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
